--- a/UFood Excel.xlsx
+++ b/UFood Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Santos\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04401F85-F5E7-497C-A6C3-C8168E0AFC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FA4B7C-698D-4A8B-A8CB-B101A5FDE3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12345" xr2:uid="{2F675A24-F998-4C2A-8C83-9ABA759676BF}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>Select Macro Ratio:</t>
   </si>
   <si>
-    <t>50/25/25</t>
-  </si>
-  <si>
     <t>WEEK 1</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>WEEK 20</t>
+  </si>
+  <si>
+    <t>50/20/30</t>
   </si>
 </sst>
 </file>
@@ -214,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,6 +236,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -671,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0DD227-ED38-4F6C-A51C-B20A9F279D0E}">
   <dimension ref="B2:AH27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -694,8 +697,8 @@
         <v>13</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
+      <c r="E3" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="G3" s="5">
         <f>(LEFT(E3, FIND("/", E3) - 1)/100)*E2/4</f>
@@ -703,11 +706,11 @@
       </c>
       <c r="H3" s="5">
         <f>(MID(E3, FIND("/", E3) + 1, FIND("/", E3, FIND("/", E3) + 1) - FIND("/", E3) - 1)/100)*E2/4</f>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I3" s="5">
         <f>(RIGHT(E3, LEN(E3) - FIND("/", E3, FIND("/", E3) + 1))/100)*E2/9</f>
-        <v>55.555555555555557</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.45">
@@ -865,7 +868,7 @@
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -914,7 +917,7 @@
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -963,7 +966,7 @@
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1012,7 +1015,7 @@
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1061,7 +1064,7 @@
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1110,7 +1113,7 @@
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1159,7 +1162,7 @@
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1208,7 +1211,7 @@
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1257,7 +1260,7 @@
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1306,7 +1309,7 @@
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1355,7 +1358,7 @@
     </row>
     <row r="18" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1404,7 +1407,7 @@
     </row>
     <row r="19" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B19" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1453,7 +1456,7 @@
     </row>
     <row r="20" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1502,7 +1505,7 @@
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B21" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1551,7 +1554,7 @@
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1600,7 +1603,7 @@
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1649,7 +1652,7 @@
     </row>
     <row r="24" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1698,7 +1701,7 @@
     </row>
     <row r="25" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1747,7 +1750,7 @@
     </row>
     <row r="26" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1796,7 +1799,7 @@
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1896,7 +1899,7 @@
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{FDABE511-A100-4E0C-81EF-2F82DF98D75D}">
-      <formula1>"50/20/30, 50/25/25, 60/25/15, 25/40/35, 5/30/65"</formula1>
+      <formula1>"50/20/30, 50/25/25, 60/25/15, 25/40/35"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UFood Excel.xlsx
+++ b/UFood Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Santos\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FA4B7C-698D-4A8B-A8CB-B101A5FDE3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AD5325-7248-4281-8DBA-75BE42E5CDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12345" xr2:uid="{2F675A24-F998-4C2A-8C83-9ABA759676BF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="35">
   <si>
     <t>Monday</t>
   </si>
@@ -232,13 +232,13 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -246,7 +246,447 @@
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -672,32 +1112,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0DD227-ED38-4F6C-A51C-B20A9F279D0E}">
-  <dimension ref="B2:AH27"/>
+  <dimension ref="B2:BQ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C33:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="30" width="9.06640625" style="2"/>
+    <col min="31" max="32" width="9.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="37" width="9.06640625" style="2"/>
+    <col min="38" max="38" width="9.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="65" width="9.06640625" style="2"/>
+    <col min="66" max="66" width="9.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="5">
@@ -713,62 +1161,110 @@
         <v>66.666666666666671</v>
       </c>
     </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:69" x14ac:dyDescent="0.45">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="C6" s="7" t="s">
+    <row r="6" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="C6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7" t="s">
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7" t="s">
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7" t="s">
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7" t="s">
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7" t="s">
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AL6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="8"/>
+      <c r="BJ6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK6" s="8"/>
+      <c r="BL6" s="8"/>
+      <c r="BM6" s="8"/>
+      <c r="BN6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO6" s="8"/>
+      <c r="BP6" s="8"/>
+      <c r="BQ6" s="8"/>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:69" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
@@ -865,8 +1361,104 @@
       <c r="AH7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="AL7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -914,8 +1506,55 @@
         <f>IFERROR(AVERAGE(F8,J8,N8,R8,V8,Z8,AD8),-1)</f>
         <v>-1</v>
       </c>
+      <c r="AK8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
+      <c r="BL8" s="4"/>
+      <c r="BM8" s="4"/>
+      <c r="BN8" s="4">
+        <f>IFERROR(AVERAGE(AL8,AP8,AT8,AX8,BB8,BF8,BJ8),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="BO8" s="4">
+        <f>IFERROR(AVERAGE(AM8,AQ8,AU8,AY8,BC8,BG8,BK8),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="BP8" s="4">
+        <f>IFERROR(AVERAGE(AN8,AR8,AV8,AZ8,BD8,BH8,BL8),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="BQ8" s="4">
+        <f>IFERROR(AVERAGE(AO8,AS8,AW8,BA8,BE8,BI8,BM8),-1)</f>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
@@ -963,8 +1602,55 @@
         <f t="shared" ref="AH9:AH27" si="2">IFERROR(AVERAGE(F9,J9,N9,R9,V9,Z9,AD9),-1)</f>
         <v>-1</v>
       </c>
+      <c r="AK9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
+      <c r="BF9" s="4"/>
+      <c r="BG9" s="4"/>
+      <c r="BH9" s="4"/>
+      <c r="BI9" s="4"/>
+      <c r="BJ9" s="4"/>
+      <c r="BK9" s="4"/>
+      <c r="BL9" s="4"/>
+      <c r="BM9" s="4"/>
+      <c r="BN9" s="4">
+        <f t="shared" ref="BN9:BN27" si="3">IFERROR(AVERAGE(AL9,AP9,AT9,AX9,BB9,BF9,BJ9),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="BO9" s="4">
+        <f t="shared" ref="BO9:BO27" si="4">IFERROR(AVERAGE(AM9,AQ9,AU9,AY9,BC9,BG9,BK9),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="BP9" s="4">
+        <f t="shared" ref="BP9:BP27" si="5">IFERROR(AVERAGE(AN9,AR9,AV9,AZ9,BD9,BH9,BL9),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="BQ9" s="4">
+        <f t="shared" ref="BQ9:BQ27" si="6">IFERROR(AVERAGE(AO9,AS9,AW9,BA9,BE9,BI9,BM9),-1)</f>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
@@ -1012,8 +1698,55 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="AK10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4"/>
+      <c r="BH10" s="4"/>
+      <c r="BI10" s="4"/>
+      <c r="BJ10" s="4"/>
+      <c r="BK10" s="4"/>
+      <c r="BL10" s="4"/>
+      <c r="BM10" s="4"/>
+      <c r="BN10" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="BO10" s="4">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="BP10" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ10" s="4">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
@@ -1061,8 +1794,55 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="AK11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
+      <c r="BF11" s="4"/>
+      <c r="BG11" s="4"/>
+      <c r="BH11" s="4"/>
+      <c r="BI11" s="4"/>
+      <c r="BJ11" s="4"/>
+      <c r="BK11" s="4"/>
+      <c r="BL11" s="4"/>
+      <c r="BM11" s="4"/>
+      <c r="BN11" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="BO11" s="4">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="BP11" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ11" s="4">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1110,8 +1890,55 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="AK12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
+      <c r="BF12" s="4"/>
+      <c r="BG12" s="4"/>
+      <c r="BH12" s="4"/>
+      <c r="BI12" s="4"/>
+      <c r="BJ12" s="4"/>
+      <c r="BK12" s="4"/>
+      <c r="BL12" s="4"/>
+      <c r="BM12" s="4"/>
+      <c r="BN12" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="BO12" s="4">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="BP12" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ12" s="4">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
@@ -1159,8 +1986,55 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="AK13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4"/>
+      <c r="BK13" s="4"/>
+      <c r="BL13" s="4"/>
+      <c r="BM13" s="4"/>
+      <c r="BN13" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="BO13" s="4">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="BP13" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ13" s="4">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
@@ -1208,8 +2082,55 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="AK14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
+      <c r="BL14" s="4"/>
+      <c r="BM14" s="4"/>
+      <c r="BN14" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="BO14" s="4">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="BP14" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ14" s="4">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
@@ -1257,8 +2178,55 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="AK15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
+      <c r="BL15" s="4"/>
+      <c r="BM15" s="4"/>
+      <c r="BN15" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="BO15" s="4">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="BP15" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ15" s="4">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
@@ -1306,8 +2274,55 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="AK16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+      <c r="BF16" s="4"/>
+      <c r="BG16" s="4"/>
+      <c r="BH16" s="4"/>
+      <c r="BI16" s="4"/>
+      <c r="BJ16" s="4"/>
+      <c r="BK16" s="4"/>
+      <c r="BL16" s="4"/>
+      <c r="BM16" s="4"/>
+      <c r="BN16" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="BO16" s="4">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="BP16" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ16" s="4">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
@@ -1355,8 +2370,55 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="AK17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="4"/>
+      <c r="BK17" s="4"/>
+      <c r="BL17" s="4"/>
+      <c r="BM17" s="4"/>
+      <c r="BN17" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="BO17" s="4">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="BP17" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ17" s="4">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
@@ -1404,8 +2466,55 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="AK18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
+      <c r="BL18" s="4"/>
+      <c r="BM18" s="4"/>
+      <c r="BN18" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="BO18" s="4">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="BP18" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ18" s="4">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
@@ -1453,8 +2562,55 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="AK19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="4"/>
+      <c r="BI19" s="4"/>
+      <c r="BJ19" s="4"/>
+      <c r="BK19" s="4"/>
+      <c r="BL19" s="4"/>
+      <c r="BM19" s="4"/>
+      <c r="BN19" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="BO19" s="4">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="BP19" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ19" s="4">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
@@ -1502,8 +2658,55 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="AK20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
+      <c r="BF20" s="4"/>
+      <c r="BG20" s="4"/>
+      <c r="BH20" s="4"/>
+      <c r="BI20" s="4"/>
+      <c r="BJ20" s="4"/>
+      <c r="BK20" s="4"/>
+      <c r="BL20" s="4"/>
+      <c r="BM20" s="4"/>
+      <c r="BN20" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="BO20" s="4">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="BP20" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ20" s="4">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B21" s="6" t="s">
         <v>27</v>
       </c>
@@ -1551,8 +2754,55 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="AK21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4"/>
+      <c r="AZ21" s="4"/>
+      <c r="BA21" s="4"/>
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
+      <c r="BF21" s="4"/>
+      <c r="BG21" s="4"/>
+      <c r="BH21" s="4"/>
+      <c r="BI21" s="4"/>
+      <c r="BJ21" s="4"/>
+      <c r="BK21" s="4"/>
+      <c r="BL21" s="4"/>
+      <c r="BM21" s="4"/>
+      <c r="BN21" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="BO21" s="4">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="BP21" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ21" s="4">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="s">
         <v>28</v>
       </c>
@@ -1600,8 +2850,55 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="AK22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+      <c r="BF22" s="4"/>
+      <c r="BG22" s="4"/>
+      <c r="BH22" s="4"/>
+      <c r="BI22" s="4"/>
+      <c r="BJ22" s="4"/>
+      <c r="BK22" s="4"/>
+      <c r="BL22" s="4"/>
+      <c r="BM22" s="4"/>
+      <c r="BN22" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="BO22" s="4">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="BP22" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ22" s="4">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
         <v>29</v>
       </c>
@@ -1649,8 +2946,55 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="AK23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="4"/>
+      <c r="BI23" s="4"/>
+      <c r="BJ23" s="4"/>
+      <c r="BK23" s="4"/>
+      <c r="BL23" s="4"/>
+      <c r="BM23" s="4"/>
+      <c r="BN23" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="BO23" s="4">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="BP23" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ23" s="4">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
         <v>30</v>
       </c>
@@ -1698,8 +3042,55 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="AK24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4"/>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
+      <c r="BF24" s="4"/>
+      <c r="BG24" s="4"/>
+      <c r="BH24" s="4"/>
+      <c r="BI24" s="4"/>
+      <c r="BJ24" s="4"/>
+      <c r="BK24" s="4"/>
+      <c r="BL24" s="4"/>
+      <c r="BM24" s="4"/>
+      <c r="BN24" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="BO24" s="4">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="BP24" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ24" s="4">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -1747,8 +3138,55 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="AK25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
+      <c r="AY25" s="4"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
+      <c r="BF25" s="4"/>
+      <c r="BG25" s="4"/>
+      <c r="BH25" s="4"/>
+      <c r="BI25" s="4"/>
+      <c r="BJ25" s="4"/>
+      <c r="BK25" s="4"/>
+      <c r="BL25" s="4"/>
+      <c r="BM25" s="4"/>
+      <c r="BN25" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="BO25" s="4">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="BP25" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ25" s="4">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
@@ -1796,8 +3234,55 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="AK26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="4"/>
+      <c r="AT26" s="4"/>
+      <c r="AU26" s="4"/>
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="4"/>
+      <c r="AX26" s="4"/>
+      <c r="AY26" s="4"/>
+      <c r="AZ26" s="4"/>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="4"/>
+      <c r="BD26" s="4"/>
+      <c r="BE26" s="4"/>
+      <c r="BF26" s="4"/>
+      <c r="BG26" s="4"/>
+      <c r="BH26" s="4"/>
+      <c r="BI26" s="4"/>
+      <c r="BJ26" s="4"/>
+      <c r="BK26" s="4"/>
+      <c r="BL26" s="4"/>
+      <c r="BM26" s="4"/>
+      <c r="BN26" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="BO26" s="4">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="BP26" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ26" s="4">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:69" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
@@ -1845,9 +3330,2292 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
+      <c r="AK27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="4"/>
+      <c r="AU27" s="4"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
+      <c r="AY27" s="4"/>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
+      <c r="BF27" s="4"/>
+      <c r="BG27" s="4"/>
+      <c r="BH27" s="4"/>
+      <c r="BI27" s="4"/>
+      <c r="BJ27" s="4"/>
+      <c r="BK27" s="4"/>
+      <c r="BL27" s="4"/>
+      <c r="BM27" s="4"/>
+      <c r="BN27" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="BO27" s="4">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="BP27" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ27" s="4">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="C31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AL31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="8"/>
+      <c r="AN31" s="8"/>
+      <c r="AO31" s="8"/>
+      <c r="AP31" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="8"/>
+      <c r="AR31" s="8"/>
+      <c r="AS31" s="8"/>
+      <c r="AT31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU31" s="8"/>
+      <c r="AV31" s="8"/>
+      <c r="AW31" s="8"/>
+      <c r="AX31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY31" s="8"/>
+      <c r="AZ31" s="8"/>
+      <c r="BA31" s="8"/>
+      <c r="BB31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC31" s="8"/>
+      <c r="BD31" s="8"/>
+      <c r="BE31" s="8"/>
+      <c r="BF31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG31" s="8"/>
+      <c r="BH31" s="8"/>
+      <c r="BI31" s="8"/>
+      <c r="BJ31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK31" s="8"/>
+      <c r="BL31" s="8"/>
+      <c r="BM31" s="8"/>
+      <c r="BN31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO31" s="8"/>
+      <c r="BP31" s="8"/>
+      <c r="BQ31" s="8"/>
+    </row>
+    <row r="32" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4">
+        <f>IFERROR(AVERAGE(C33,G33,K33,O33,S33,W33,AA33),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AF33" s="4">
+        <f>IFERROR(AVERAGE(D33,H33,L33,P33,T33,X33,AB33),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AG33" s="4">
+        <f>IFERROR(AVERAGE(E33,I33,M33,Q33,U33,Y33,AC33),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AH33" s="4">
+        <f>IFERROR(AVERAGE(F33,J33,N33,R33,V33,Z33,AD33),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AK33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="4"/>
+      <c r="AO33" s="4"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="4"/>
+      <c r="AT33" s="4"/>
+      <c r="AU33" s="4"/>
+      <c r="AV33" s="4"/>
+      <c r="AW33" s="4"/>
+      <c r="AX33" s="4"/>
+      <c r="AY33" s="4"/>
+      <c r="AZ33" s="4"/>
+      <c r="BA33" s="4"/>
+      <c r="BB33" s="4"/>
+      <c r="BC33" s="4"/>
+      <c r="BD33" s="4"/>
+      <c r="BE33" s="4"/>
+      <c r="BF33" s="4"/>
+      <c r="BG33" s="4"/>
+      <c r="BH33" s="4"/>
+      <c r="BI33" s="4"/>
+      <c r="BJ33" s="4"/>
+      <c r="BK33" s="4"/>
+      <c r="BL33" s="4"/>
+      <c r="BM33" s="4"/>
+      <c r="BN33" s="4">
+        <f>IFERROR(AVERAGE(AL33,AP33,AT33,AX33,BB33,BF33,BJ33),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="BO33" s="4">
+        <f>IFERROR(AVERAGE(AM33,AQ33,AU33,AY33,BC33,BG33,BK33),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="BP33" s="4">
+        <f>IFERROR(AVERAGE(AN33,AR33,AV33,AZ33,BD33,BH33,BL33),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="BQ33" s="4">
+        <f>IFERROR(AVERAGE(AO33,AS33,AW33,BA33,BE33,BI33,BM33),-1)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4">
+        <f t="shared" ref="AE34:AE52" si="7">IFERROR(AVERAGE(C34,G34,K34,O34,S34,W34,AA34),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AF34" s="4">
+        <f t="shared" ref="AF34:AF52" si="8">IFERROR(AVERAGE(D34,H34,L34,P34,T34,X34,AB34),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AG34" s="4">
+        <f t="shared" ref="AG34:AG52" si="9">IFERROR(AVERAGE(E34,I34,M34,Q34,U34,Y34,AC34),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AH34" s="4">
+        <f t="shared" ref="AH34:AH52" si="10">IFERROR(AVERAGE(F34,J34,N34,R34,V34,Z34,AD34),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AK34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4"/>
+      <c r="AO34" s="4"/>
+      <c r="AP34" s="4"/>
+      <c r="AQ34" s="4"/>
+      <c r="AR34" s="4"/>
+      <c r="AS34" s="4"/>
+      <c r="AT34" s="4"/>
+      <c r="AU34" s="4"/>
+      <c r="AV34" s="4"/>
+      <c r="AW34" s="4"/>
+      <c r="AX34" s="4"/>
+      <c r="AY34" s="4"/>
+      <c r="AZ34" s="4"/>
+      <c r="BA34" s="4"/>
+      <c r="BB34" s="4"/>
+      <c r="BC34" s="4"/>
+      <c r="BD34" s="4"/>
+      <c r="BE34" s="4"/>
+      <c r="BF34" s="4"/>
+      <c r="BG34" s="4"/>
+      <c r="BH34" s="4"/>
+      <c r="BI34" s="4"/>
+      <c r="BJ34" s="4"/>
+      <c r="BK34" s="4"/>
+      <c r="BL34" s="4"/>
+      <c r="BM34" s="4"/>
+      <c r="BN34" s="4">
+        <f t="shared" ref="BN34:BN52" si="11">IFERROR(AVERAGE(AL34,AP34,AT34,AX34,BB34,BF34,BJ34),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="BO34" s="4">
+        <f t="shared" ref="BO34:BO52" si="12">IFERROR(AVERAGE(AM34,AQ34,AU34,AY34,BC34,BG34,BK34),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="BP34" s="4">
+        <f t="shared" ref="BP34:BP52" si="13">IFERROR(AVERAGE(AN34,AR34,AV34,AZ34,BD34,BH34,BL34),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="BQ34" s="4">
+        <f t="shared" ref="BQ34:BQ52" si="14">IFERROR(AVERAGE(AO34,AS34,AW34,BA34,BE34,BI34,BM34),-1)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AF35" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AG35" s="4">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AH35" s="4">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="AK35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="4"/>
+      <c r="AS35" s="4"/>
+      <c r="AT35" s="4"/>
+      <c r="AU35" s="4"/>
+      <c r="AV35" s="4"/>
+      <c r="AW35" s="4"/>
+      <c r="AX35" s="4"/>
+      <c r="AY35" s="4"/>
+      <c r="AZ35" s="4"/>
+      <c r="BA35" s="4"/>
+      <c r="BB35" s="4"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="4"/>
+      <c r="BF35" s="4"/>
+      <c r="BG35" s="4"/>
+      <c r="BH35" s="4"/>
+      <c r="BI35" s="4"/>
+      <c r="BJ35" s="4"/>
+      <c r="BK35" s="4"/>
+      <c r="BL35" s="4"/>
+      <c r="BM35" s="4"/>
+      <c r="BN35" s="4">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="BO35" s="4">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BP35" s="4">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ35" s="4">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AF36" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AG36" s="4">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AH36" s="4">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="AK36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="4"/>
+      <c r="AY36" s="4"/>
+      <c r="AZ36" s="4"/>
+      <c r="BA36" s="4"/>
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="4"/>
+      <c r="BF36" s="4"/>
+      <c r="BG36" s="4"/>
+      <c r="BH36" s="4"/>
+      <c r="BI36" s="4"/>
+      <c r="BJ36" s="4"/>
+      <c r="BK36" s="4"/>
+      <c r="BL36" s="4"/>
+      <c r="BM36" s="4"/>
+      <c r="BN36" s="4">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="BO36" s="4">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BP36" s="4">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ36" s="4">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AF37" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AG37" s="4">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AH37" s="4">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="AK37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="4"/>
+      <c r="AP37" s="4"/>
+      <c r="AQ37" s="4"/>
+      <c r="AR37" s="4"/>
+      <c r="AS37" s="4"/>
+      <c r="AT37" s="4"/>
+      <c r="AU37" s="4"/>
+      <c r="AV37" s="4"/>
+      <c r="AW37" s="4"/>
+      <c r="AX37" s="4"/>
+      <c r="AY37" s="4"/>
+      <c r="AZ37" s="4"/>
+      <c r="BA37" s="4"/>
+      <c r="BB37" s="4"/>
+      <c r="BC37" s="4"/>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="4"/>
+      <c r="BF37" s="4"/>
+      <c r="BG37" s="4"/>
+      <c r="BH37" s="4"/>
+      <c r="BI37" s="4"/>
+      <c r="BJ37" s="4"/>
+      <c r="BK37" s="4"/>
+      <c r="BL37" s="4"/>
+      <c r="BM37" s="4"/>
+      <c r="BN37" s="4">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="BO37" s="4">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BP37" s="4">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ37" s="4">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AF38" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AG38" s="4">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AH38" s="4">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="AK38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="4"/>
+      <c r="AP38" s="4"/>
+      <c r="AQ38" s="4"/>
+      <c r="AR38" s="4"/>
+      <c r="AS38" s="4"/>
+      <c r="AT38" s="4"/>
+      <c r="AU38" s="4"/>
+      <c r="AV38" s="4"/>
+      <c r="AW38" s="4"/>
+      <c r="AX38" s="4"/>
+      <c r="AY38" s="4"/>
+      <c r="AZ38" s="4"/>
+      <c r="BA38" s="4"/>
+      <c r="BB38" s="4"/>
+      <c r="BC38" s="4"/>
+      <c r="BD38" s="4"/>
+      <c r="BE38" s="4"/>
+      <c r="BF38" s="4"/>
+      <c r="BG38" s="4"/>
+      <c r="BH38" s="4"/>
+      <c r="BI38" s="4"/>
+      <c r="BJ38" s="4"/>
+      <c r="BK38" s="4"/>
+      <c r="BL38" s="4"/>
+      <c r="BM38" s="4"/>
+      <c r="BN38" s="4">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="BO38" s="4">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BP38" s="4">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ38" s="4">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AF39" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AG39" s="4">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AH39" s="4">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="AK39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
+      <c r="AO39" s="4"/>
+      <c r="AP39" s="4"/>
+      <c r="AQ39" s="4"/>
+      <c r="AR39" s="4"/>
+      <c r="AS39" s="4"/>
+      <c r="AT39" s="4"/>
+      <c r="AU39" s="4"/>
+      <c r="AV39" s="4"/>
+      <c r="AW39" s="4"/>
+      <c r="AX39" s="4"/>
+      <c r="AY39" s="4"/>
+      <c r="AZ39" s="4"/>
+      <c r="BA39" s="4"/>
+      <c r="BB39" s="4"/>
+      <c r="BC39" s="4"/>
+      <c r="BD39" s="4"/>
+      <c r="BE39" s="4"/>
+      <c r="BF39" s="4"/>
+      <c r="BG39" s="4"/>
+      <c r="BH39" s="4"/>
+      <c r="BI39" s="4"/>
+      <c r="BJ39" s="4"/>
+      <c r="BK39" s="4"/>
+      <c r="BL39" s="4"/>
+      <c r="BM39" s="4"/>
+      <c r="BN39" s="4">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="BO39" s="4">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BP39" s="4">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ39" s="4">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AF40" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AG40" s="4">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AH40" s="4">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="AK40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
+      <c r="AO40" s="4"/>
+      <c r="AP40" s="4"/>
+      <c r="AQ40" s="4"/>
+      <c r="AR40" s="4"/>
+      <c r="AS40" s="4"/>
+      <c r="AT40" s="4"/>
+      <c r="AU40" s="4"/>
+      <c r="AV40" s="4"/>
+      <c r="AW40" s="4"/>
+      <c r="AX40" s="4"/>
+      <c r="AY40" s="4"/>
+      <c r="AZ40" s="4"/>
+      <c r="BA40" s="4"/>
+      <c r="BB40" s="4"/>
+      <c r="BC40" s="4"/>
+      <c r="BD40" s="4"/>
+      <c r="BE40" s="4"/>
+      <c r="BF40" s="4"/>
+      <c r="BG40" s="4"/>
+      <c r="BH40" s="4"/>
+      <c r="BI40" s="4"/>
+      <c r="BJ40" s="4"/>
+      <c r="BK40" s="4"/>
+      <c r="BL40" s="4"/>
+      <c r="BM40" s="4"/>
+      <c r="BN40" s="4">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="BO40" s="4">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BP40" s="4">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ40" s="4">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AF41" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AG41" s="4">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AH41" s="4">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="AK41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="4"/>
+      <c r="AP41" s="4"/>
+      <c r="AQ41" s="4"/>
+      <c r="AR41" s="4"/>
+      <c r="AS41" s="4"/>
+      <c r="AT41" s="4"/>
+      <c r="AU41" s="4"/>
+      <c r="AV41" s="4"/>
+      <c r="AW41" s="4"/>
+      <c r="AX41" s="4"/>
+      <c r="AY41" s="4"/>
+      <c r="AZ41" s="4"/>
+      <c r="BA41" s="4"/>
+      <c r="BB41" s="4"/>
+      <c r="BC41" s="4"/>
+      <c r="BD41" s="4"/>
+      <c r="BE41" s="4"/>
+      <c r="BF41" s="4"/>
+      <c r="BG41" s="4"/>
+      <c r="BH41" s="4"/>
+      <c r="BI41" s="4"/>
+      <c r="BJ41" s="4"/>
+      <c r="BK41" s="4"/>
+      <c r="BL41" s="4"/>
+      <c r="BM41" s="4"/>
+      <c r="BN41" s="4">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="BO41" s="4">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BP41" s="4">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ41" s="4">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AF42" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AG42" s="4">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AH42" s="4">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="AK42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="4"/>
+      <c r="AP42" s="4"/>
+      <c r="AQ42" s="4"/>
+      <c r="AR42" s="4"/>
+      <c r="AS42" s="4"/>
+      <c r="AT42" s="4"/>
+      <c r="AU42" s="4"/>
+      <c r="AV42" s="4"/>
+      <c r="AW42" s="4"/>
+      <c r="AX42" s="4"/>
+      <c r="AY42" s="4"/>
+      <c r="AZ42" s="4"/>
+      <c r="BA42" s="4"/>
+      <c r="BB42" s="4"/>
+      <c r="BC42" s="4"/>
+      <c r="BD42" s="4"/>
+      <c r="BE42" s="4"/>
+      <c r="BF42" s="4"/>
+      <c r="BG42" s="4"/>
+      <c r="BH42" s="4"/>
+      <c r="BI42" s="4"/>
+      <c r="BJ42" s="4"/>
+      <c r="BK42" s="4"/>
+      <c r="BL42" s="4"/>
+      <c r="BM42" s="4"/>
+      <c r="BN42" s="4">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="BO42" s="4">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BP42" s="4">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ42" s="4">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AF43" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AG43" s="4">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AH43" s="4">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="AK43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="4"/>
+      <c r="AO43" s="4"/>
+      <c r="AP43" s="4"/>
+      <c r="AQ43" s="4"/>
+      <c r="AR43" s="4"/>
+      <c r="AS43" s="4"/>
+      <c r="AT43" s="4"/>
+      <c r="AU43" s="4"/>
+      <c r="AV43" s="4"/>
+      <c r="AW43" s="4"/>
+      <c r="AX43" s="4"/>
+      <c r="AY43" s="4"/>
+      <c r="AZ43" s="4"/>
+      <c r="BA43" s="4"/>
+      <c r="BB43" s="4"/>
+      <c r="BC43" s="4"/>
+      <c r="BD43" s="4"/>
+      <c r="BE43" s="4"/>
+      <c r="BF43" s="4"/>
+      <c r="BG43" s="4"/>
+      <c r="BH43" s="4"/>
+      <c r="BI43" s="4"/>
+      <c r="BJ43" s="4"/>
+      <c r="BK43" s="4"/>
+      <c r="BL43" s="4"/>
+      <c r="BM43" s="4"/>
+      <c r="BN43" s="4">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="BO43" s="4">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BP43" s="4">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ43" s="4">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B44" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AF44" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AG44" s="4">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AH44" s="4">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="AK44" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="4"/>
+      <c r="AP44" s="4"/>
+      <c r="AQ44" s="4"/>
+      <c r="AR44" s="4"/>
+      <c r="AS44" s="4"/>
+      <c r="AT44" s="4"/>
+      <c r="AU44" s="4"/>
+      <c r="AV44" s="4"/>
+      <c r="AW44" s="4"/>
+      <c r="AX44" s="4"/>
+      <c r="AY44" s="4"/>
+      <c r="AZ44" s="4"/>
+      <c r="BA44" s="4"/>
+      <c r="BB44" s="4"/>
+      <c r="BC44" s="4"/>
+      <c r="BD44" s="4"/>
+      <c r="BE44" s="4"/>
+      <c r="BF44" s="4"/>
+      <c r="BG44" s="4"/>
+      <c r="BH44" s="4"/>
+      <c r="BI44" s="4"/>
+      <c r="BJ44" s="4"/>
+      <c r="BK44" s="4"/>
+      <c r="BL44" s="4"/>
+      <c r="BM44" s="4"/>
+      <c r="BN44" s="4">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="BO44" s="4">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BP44" s="4">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ44" s="4">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AF45" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AG45" s="4">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AH45" s="4">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="AK45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="4"/>
+      <c r="AN45" s="4"/>
+      <c r="AO45" s="4"/>
+      <c r="AP45" s="4"/>
+      <c r="AQ45" s="4"/>
+      <c r="AR45" s="4"/>
+      <c r="AS45" s="4"/>
+      <c r="AT45" s="4"/>
+      <c r="AU45" s="4"/>
+      <c r="AV45" s="4"/>
+      <c r="AW45" s="4"/>
+      <c r="AX45" s="4"/>
+      <c r="AY45" s="4"/>
+      <c r="AZ45" s="4"/>
+      <c r="BA45" s="4"/>
+      <c r="BB45" s="4"/>
+      <c r="BC45" s="4"/>
+      <c r="BD45" s="4"/>
+      <c r="BE45" s="4"/>
+      <c r="BF45" s="4"/>
+      <c r="BG45" s="4"/>
+      <c r="BH45" s="4"/>
+      <c r="BI45" s="4"/>
+      <c r="BJ45" s="4"/>
+      <c r="BK45" s="4"/>
+      <c r="BL45" s="4"/>
+      <c r="BM45" s="4"/>
+      <c r="BN45" s="4">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="BO45" s="4">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BP45" s="4">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ45" s="4">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AF46" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AG46" s="4">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AH46" s="4">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="AK46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL46" s="4"/>
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="4"/>
+      <c r="AO46" s="4"/>
+      <c r="AP46" s="4"/>
+      <c r="AQ46" s="4"/>
+      <c r="AR46" s="4"/>
+      <c r="AS46" s="4"/>
+      <c r="AT46" s="4"/>
+      <c r="AU46" s="4"/>
+      <c r="AV46" s="4"/>
+      <c r="AW46" s="4"/>
+      <c r="AX46" s="4"/>
+      <c r="AY46" s="4"/>
+      <c r="AZ46" s="4"/>
+      <c r="BA46" s="4"/>
+      <c r="BB46" s="4"/>
+      <c r="BC46" s="4"/>
+      <c r="BD46" s="4"/>
+      <c r="BE46" s="4"/>
+      <c r="BF46" s="4"/>
+      <c r="BG46" s="4"/>
+      <c r="BH46" s="4"/>
+      <c r="BI46" s="4"/>
+      <c r="BJ46" s="4"/>
+      <c r="BK46" s="4"/>
+      <c r="BL46" s="4"/>
+      <c r="BM46" s="4"/>
+      <c r="BN46" s="4">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="BO46" s="4">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BP46" s="4">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ46" s="4">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AF47" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AG47" s="4">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AH47" s="4">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="AK47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL47" s="4"/>
+      <c r="AM47" s="4"/>
+      <c r="AN47" s="4"/>
+      <c r="AO47" s="4"/>
+      <c r="AP47" s="4"/>
+      <c r="AQ47" s="4"/>
+      <c r="AR47" s="4"/>
+      <c r="AS47" s="4"/>
+      <c r="AT47" s="4"/>
+      <c r="AU47" s="4"/>
+      <c r="AV47" s="4"/>
+      <c r="AW47" s="4"/>
+      <c r="AX47" s="4"/>
+      <c r="AY47" s="4"/>
+      <c r="AZ47" s="4"/>
+      <c r="BA47" s="4"/>
+      <c r="BB47" s="4"/>
+      <c r="BC47" s="4"/>
+      <c r="BD47" s="4"/>
+      <c r="BE47" s="4"/>
+      <c r="BF47" s="4"/>
+      <c r="BG47" s="4"/>
+      <c r="BH47" s="4"/>
+      <c r="BI47" s="4"/>
+      <c r="BJ47" s="4"/>
+      <c r="BK47" s="4"/>
+      <c r="BL47" s="4"/>
+      <c r="BM47" s="4"/>
+      <c r="BN47" s="4">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="BO47" s="4">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BP47" s="4">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ47" s="4">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AF48" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AG48" s="4">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AH48" s="4">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="AK48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL48" s="4"/>
+      <c r="AM48" s="4"/>
+      <c r="AN48" s="4"/>
+      <c r="AO48" s="4"/>
+      <c r="AP48" s="4"/>
+      <c r="AQ48" s="4"/>
+      <c r="AR48" s="4"/>
+      <c r="AS48" s="4"/>
+      <c r="AT48" s="4"/>
+      <c r="AU48" s="4"/>
+      <c r="AV48" s="4"/>
+      <c r="AW48" s="4"/>
+      <c r="AX48" s="4"/>
+      <c r="AY48" s="4"/>
+      <c r="AZ48" s="4"/>
+      <c r="BA48" s="4"/>
+      <c r="BB48" s="4"/>
+      <c r="BC48" s="4"/>
+      <c r="BD48" s="4"/>
+      <c r="BE48" s="4"/>
+      <c r="BF48" s="4"/>
+      <c r="BG48" s="4"/>
+      <c r="BH48" s="4"/>
+      <c r="BI48" s="4"/>
+      <c r="BJ48" s="4"/>
+      <c r="BK48" s="4"/>
+      <c r="BL48" s="4"/>
+      <c r="BM48" s="4"/>
+      <c r="BN48" s="4">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="BO48" s="4">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BP48" s="4">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ48" s="4">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AF49" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AG49" s="4">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AH49" s="4">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="AK49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL49" s="4"/>
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="4"/>
+      <c r="AO49" s="4"/>
+      <c r="AP49" s="4"/>
+      <c r="AQ49" s="4"/>
+      <c r="AR49" s="4"/>
+      <c r="AS49" s="4"/>
+      <c r="AT49" s="4"/>
+      <c r="AU49" s="4"/>
+      <c r="AV49" s="4"/>
+      <c r="AW49" s="4"/>
+      <c r="AX49" s="4"/>
+      <c r="AY49" s="4"/>
+      <c r="AZ49" s="4"/>
+      <c r="BA49" s="4"/>
+      <c r="BB49" s="4"/>
+      <c r="BC49" s="4"/>
+      <c r="BD49" s="4"/>
+      <c r="BE49" s="4"/>
+      <c r="BF49" s="4"/>
+      <c r="BG49" s="4"/>
+      <c r="BH49" s="4"/>
+      <c r="BI49" s="4"/>
+      <c r="BJ49" s="4"/>
+      <c r="BK49" s="4"/>
+      <c r="BL49" s="4"/>
+      <c r="BM49" s="4"/>
+      <c r="BN49" s="4">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="BO49" s="4">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BP49" s="4">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ49" s="4">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B50" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="4">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AF50" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AG50" s="4">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AH50" s="4">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="AK50" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL50" s="4"/>
+      <c r="AM50" s="4"/>
+      <c r="AN50" s="4"/>
+      <c r="AO50" s="4"/>
+      <c r="AP50" s="4"/>
+      <c r="AQ50" s="4"/>
+      <c r="AR50" s="4"/>
+      <c r="AS50" s="4"/>
+      <c r="AT50" s="4"/>
+      <c r="AU50" s="4"/>
+      <c r="AV50" s="4"/>
+      <c r="AW50" s="4"/>
+      <c r="AX50" s="4"/>
+      <c r="AY50" s="4"/>
+      <c r="AZ50" s="4"/>
+      <c r="BA50" s="4"/>
+      <c r="BB50" s="4"/>
+      <c r="BC50" s="4"/>
+      <c r="BD50" s="4"/>
+      <c r="BE50" s="4"/>
+      <c r="BF50" s="4"/>
+      <c r="BG50" s="4"/>
+      <c r="BH50" s="4"/>
+      <c r="BI50" s="4"/>
+      <c r="BJ50" s="4"/>
+      <c r="BK50" s="4"/>
+      <c r="BL50" s="4"/>
+      <c r="BM50" s="4"/>
+      <c r="BN50" s="4">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="BO50" s="4">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BP50" s="4">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ50" s="4">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AF51" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AG51" s="4">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AH51" s="4">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="AK51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL51" s="4"/>
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="4"/>
+      <c r="AO51" s="4"/>
+      <c r="AP51" s="4"/>
+      <c r="AQ51" s="4"/>
+      <c r="AR51" s="4"/>
+      <c r="AS51" s="4"/>
+      <c r="AT51" s="4"/>
+      <c r="AU51" s="4"/>
+      <c r="AV51" s="4"/>
+      <c r="AW51" s="4"/>
+      <c r="AX51" s="4"/>
+      <c r="AY51" s="4"/>
+      <c r="AZ51" s="4"/>
+      <c r="BA51" s="4"/>
+      <c r="BB51" s="4"/>
+      <c r="BC51" s="4"/>
+      <c r="BD51" s="4"/>
+      <c r="BE51" s="4"/>
+      <c r="BF51" s="4"/>
+      <c r="BG51" s="4"/>
+      <c r="BH51" s="4"/>
+      <c r="BI51" s="4"/>
+      <c r="BJ51" s="4"/>
+      <c r="BK51" s="4"/>
+      <c r="BL51" s="4"/>
+      <c r="BM51" s="4"/>
+      <c r="BN51" s="4">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="BO51" s="4">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BP51" s="4">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ51" s="4">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:69" x14ac:dyDescent="0.45">
+      <c r="B52" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AF52" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AG52" s="4">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AH52" s="4">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="AK52" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL52" s="4"/>
+      <c r="AM52" s="4"/>
+      <c r="AN52" s="4"/>
+      <c r="AO52" s="4"/>
+      <c r="AP52" s="4"/>
+      <c r="AQ52" s="4"/>
+      <c r="AR52" s="4"/>
+      <c r="AS52" s="4"/>
+      <c r="AT52" s="4"/>
+      <c r="AU52" s="4"/>
+      <c r="AV52" s="4"/>
+      <c r="AW52" s="4"/>
+      <c r="AX52" s="4"/>
+      <c r="AY52" s="4"/>
+      <c r="AZ52" s="4"/>
+      <c r="BA52" s="4"/>
+      <c r="BB52" s="4"/>
+      <c r="BC52" s="4"/>
+      <c r="BD52" s="4"/>
+      <c r="BE52" s="4"/>
+      <c r="BF52" s="4"/>
+      <c r="BG52" s="4"/>
+      <c r="BH52" s="4"/>
+      <c r="BI52" s="4"/>
+      <c r="BJ52" s="4"/>
+      <c r="BK52" s="4"/>
+      <c r="BL52" s="4"/>
+      <c r="BM52" s="4"/>
+      <c r="BN52" s="4">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="BO52" s="4">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="BP52" s="4">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ52" s="4">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="34">
+    <mergeCell ref="BF6:BI6"/>
+    <mergeCell ref="BJ6:BM6"/>
+    <mergeCell ref="BN6:BQ6"/>
+    <mergeCell ref="AL31:AO31"/>
+    <mergeCell ref="AP31:AS31"/>
+    <mergeCell ref="AT31:AW31"/>
+    <mergeCell ref="AX31:BA31"/>
+    <mergeCell ref="BB31:BE31"/>
+    <mergeCell ref="BF31:BI31"/>
+    <mergeCell ref="BJ31:BM31"/>
+    <mergeCell ref="BN31:BQ31"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="AT6:AW6"/>
+    <mergeCell ref="AX6:BA6"/>
+    <mergeCell ref="BB6:BE6"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="AA31:AD31"/>
+    <mergeCell ref="AE31:AH31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:V31"/>
     <mergeCell ref="AE6:AH6"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -1861,6 +5629,117 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="AE8:AE27">
+    <cfRule type="cellIs" dxfId="53" priority="29" operator="lessThanOrEqual">
+      <formula>$E$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="30" operator="greaterThan">
+      <formula>$E$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE8:AH27">
+    <cfRule type="cellIs" dxfId="51" priority="28" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF8:AF27">
+    <cfRule type="cellIs" dxfId="50" priority="36" operator="greaterThanOrEqual">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="37" operator="lessThan">
+      <formula>$G$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8:AG27">
+    <cfRule type="cellIs" dxfId="48" priority="34" operator="greaterThanOrEqual">
+      <formula>$H$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="35" operator="lessThan">
+      <formula>$H$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH8:AH27">
+    <cfRule type="cellIs" dxfId="46" priority="32" operator="greaterThanOrEqual">
+      <formula>$I$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="33" operator="lessThan">
+      <formula>$I$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE33:AE52">
+    <cfRule type="cellIs" dxfId="44" priority="20" operator="lessThanOrEqual">
+      <formula>$E$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="21" operator="greaterThan">
+      <formula>$E$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE33:AH52">
+    <cfRule type="cellIs" dxfId="42" priority="19" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF33:AF52">
+    <cfRule type="cellIs" dxfId="41" priority="26" operator="greaterThanOrEqual">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="27" operator="lessThan">
+      <formula>$G$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG33:AG52">
+    <cfRule type="cellIs" dxfId="39" priority="24" operator="greaterThanOrEqual">
+      <formula>$H$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="25" operator="lessThan">
+      <formula>$H$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH33:AH52">
+    <cfRule type="cellIs" dxfId="37" priority="22" operator="greaterThanOrEqual">
+      <formula>$I$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="23" operator="lessThan">
+      <formula>$I$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN8:BN27">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="lessThanOrEqual">
+      <formula>$E$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="greaterThan">
+      <formula>$E$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN8:BQ27">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO8:BO27">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="greaterThanOrEqual">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="lessThan">
+      <formula>$G$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP8:BP27">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThanOrEqual">
+      <formula>$H$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="lessThan">
+      <formula>$H$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ8:BQ27">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThanOrEqual">
+      <formula>$I$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="lessThan">
+      <formula>$I$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN33:BN52">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
       <formula>$E$2</formula>
     </cfRule>
@@ -1868,32 +5747,32 @@
       <formula>$E$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE8:AH27">
+  <conditionalFormatting sqref="BN33:BQ52">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF8:AF27">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="BO33:BO52">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThanOrEqual">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG8:AG27">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="BP33:BP52">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThanOrEqual">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH8:AH27">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="BQ33:BQ52">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThanOrEqual">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/UFood Excel.xlsx
+++ b/UFood Excel.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Santos\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconn-my.sharepoint.com/personal/mds23010_uconn_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AD5325-7248-4281-8DBA-75BE42E5CDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{BFFD47D4-DF5E-4F3D-B567-3C7470162895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01A6797E-55E3-4E73-BF7A-FCD77AF9B728}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12345" xr2:uid="{2F675A24-F998-4C2A-8C83-9ABA759676BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="50" iterateDelta="0"/>
+  <calcPr calcId="191028" iterate="1" iterateCount="50" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -140,7 +140,7 @@
     <t>WEEK 20</t>
   </si>
   <si>
-    <t>50/20/30</t>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -246,7 +246,7 @@
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="36">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -304,6 +304,74 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -396,14 +464,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -465,21 +525,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -492,12 +552,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -541,240 +599,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -793,6 +617,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1114,21 +942,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0DD227-ED38-4F6C-A51C-B20A9F279D0E}">
   <dimension ref="B2:BQ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C33:D34"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="30" width="9.06640625" style="2"/>
+    <col min="1" max="30" width="9" style="2"/>
     <col min="31" max="32" width="9.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="37" width="9.06640625" style="2"/>
+    <col min="33" max="37" width="9" style="2"/>
     <col min="38" max="38" width="9.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="65" width="9.06640625" style="2"/>
+    <col min="39" max="39" width="9.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="65" width="9" style="2"/>
     <col min="66" max="66" width="9.1328125" style="2" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="9.53125" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="16384" width="9.06640625" style="2"/>
+    <col min="68" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:69" x14ac:dyDescent="0.45">
@@ -1148,17 +976,17 @@
       <c r="E3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="5" t="e">
         <f>(LEFT(E3, FIND("/", E3) - 1)/100)*E2/4</f>
-        <v>250</v>
-      </c>
-      <c r="H3" s="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H3" s="5" t="e">
         <f>(MID(E3, FIND("/", E3) + 1, FIND("/", E3, FIND("/", E3) + 1) - FIND("/", E3) - 1)/100)*E2/4</f>
-        <v>100</v>
-      </c>
-      <c r="I3" s="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I3" s="5" t="e">
         <f>(RIGHT(E3, LEN(E3) - FIND("/", E3, FIND("/", E3) + 1))/100)*E2/9</f>
-        <v>66.666666666666671</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="2:69" x14ac:dyDescent="0.45">
@@ -5629,76 +5457,76 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="AE8:AE27">
-    <cfRule type="cellIs" dxfId="53" priority="29" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="greaterThan">
       <formula>$E$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="lessThanOrEqual">
+      <formula>$E$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE33:AE52">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="greaterThan">
+      <formula>$E$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="20" operator="lessThanOrEqual">
       <formula>$E$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AH27">
-    <cfRule type="cellIs" dxfId="51" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE33:AH52">
+    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8:AF27">
-    <cfRule type="cellIs" dxfId="50" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="37" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="36" operator="greaterThanOrEqual">
+      <formula>$G$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF33:AF52">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="greaterThanOrEqual">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8:AG27">
-    <cfRule type="cellIs" dxfId="48" priority="34" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="25" priority="34" operator="greaterThanOrEqual">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="35" operator="lessThan">
+      <formula>$H$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG33:AG52">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThanOrEqual">
+      <formula>$H$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH8:AH27">
-    <cfRule type="cellIs" dxfId="46" priority="32" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="21" priority="32" operator="greaterThanOrEqual">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="33" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE33:AE52">
-    <cfRule type="cellIs" dxfId="44" priority="20" operator="lessThanOrEqual">
-      <formula>$E$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="21" operator="greaterThan">
-      <formula>$E$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE33:AH52">
-    <cfRule type="cellIs" dxfId="42" priority="19" operator="equal">
-      <formula>-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF33:AF52">
-    <cfRule type="cellIs" dxfId="41" priority="26" operator="greaterThanOrEqual">
-      <formula>$G$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="27" operator="lessThan">
-      <formula>$G$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG33:AG52">
-    <cfRule type="cellIs" dxfId="39" priority="24" operator="greaterThanOrEqual">
-      <formula>$H$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="25" operator="lessThan">
-      <formula>$H$3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AH33:AH52">
-    <cfRule type="cellIs" dxfId="37" priority="22" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="greaterThanOrEqual">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5710,62 +5538,62 @@
       <formula>$E$2</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="BN33:BN52">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="lessThanOrEqual">
+      <formula>$E$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
+      <formula>$E$2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="BN8:BQ27">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN33:BQ52">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO8:BO27">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="greaterThanOrEqual">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="lessThan">
+      <formula>$G$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO33:BO52">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThanOrEqual">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP8:BP27">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="greaterThanOrEqual">
+      <formula>$H$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP33:BP52">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
+      <formula>$H$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ8:BQ27">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="greaterThanOrEqual">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="lessThan">
       <formula>$I$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN33:BN52">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
-      <formula>$E$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
-      <formula>$E$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN33:BQ52">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO33:BO52">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThanOrEqual">
-      <formula>$G$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
-      <formula>$G$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP33:BP52">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThanOrEqual">
-      <formula>$H$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThan">
-      <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ33:BQ52">
@@ -5778,7 +5606,7 @@
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{FDABE511-A100-4E0C-81EF-2F82DF98D75D}">
-      <formula1>"50/20/30, 50/25/25, 60/25/15, 25/40/35"</formula1>
+      <formula1>"50/20/30, 50/25/25, 60/25/15, 25/40/35, None"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
